--- a/Boletin_ Epi_Pereira/Datos/canalend.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/canalend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Dropbox\SIVIGILA\boletin epidemiologico per\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Desktop/boletin epidemiologico per/boletin epidemiologico per/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC530E85-F4A0-4F98-B1EE-802567834EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639C7488-E152-D545-8E3A-42D44EFDA634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -423,13 +423,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,732 +443,732 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.7238505888821989</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>4.6944223016104392</v>
+        <v>11.585973976936478</v>
       </c>
       <c r="D2" s="2">
-        <v>4.8867338193761984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9984319425540753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.27720833100736264</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>8.3104351314248888</v>
+        <v>12.676362504177446</v>
       </c>
       <c r="D3" s="2">
-        <v>4.7149512978331147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7266474281091604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4.0019591023635934</v>
+        <v>3.4882800136572198</v>
       </c>
       <c r="C4" s="1">
-        <v>10.231433964397265</v>
+        <v>13.328025216613973</v>
       </c>
       <c r="D4" s="2">
-        <v>3.8974032536320848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1101291986123409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.44568984479530727</v>
+        <v>0.10796552596555183</v>
       </c>
       <c r="C5" s="1">
-        <v>6.6375916895736751</v>
+        <v>10.027924474512625</v>
       </c>
       <c r="D5" s="2">
-        <v>4.2819901581538922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.7391879226357396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.15968689008636019</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4485762397832</v>
+        <v>14.367520494417509</v>
       </c>
       <c r="D6" s="2">
-        <v>5.296531919049916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.9643408824894681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>10.741176011416815</v>
+        <v>11.977705824124138</v>
       </c>
       <c r="D7" s="2">
-        <v>3.3555630334253435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5988464280224064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.71866159276946351</v>
+        <v>-0.24804031069437188</v>
       </c>
       <c r="C8" s="1">
-        <v>10.953300245673557</v>
+        <v>15.086327846595774</v>
       </c>
       <c r="D8" s="2">
-        <v>6.2119248080335767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.7294698219918132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1.7828303398588878</v>
+        <v>0.15120786841756095</v>
       </c>
       <c r="C9" s="1">
-        <v>9.0432726688414089</v>
+        <v>14.518369139717084</v>
       </c>
       <c r="D9" s="2">
-        <v>6.8816128894450674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.9929015344441172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.5239646554901467</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>10.749938917076383</v>
+        <v>18.188207323817085</v>
       </c>
       <c r="D10" s="2">
-        <v>5.8845580488570359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.909360865237165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.68052612233810827</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>13.078856968220251</v>
+        <v>17.775683920759942</v>
       </c>
       <c r="D11" s="2">
-        <v>6.8421507421511158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.8628153667184519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1.7316327362683672</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>10.762414767800133</v>
+        <v>20.788285613247794</v>
       </c>
       <c r="D12" s="2">
-        <v>7.4659315307474063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.8213830457937954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>10.554112114237197</v>
+        <v>15.435671931572978</v>
       </c>
       <c r="D13" s="2">
-        <v>4.202415562904152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9082032609680746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.27196092711115377</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>14.24049025869798</v>
+        <v>22.188718044655541</v>
       </c>
       <c r="D14" s="2">
-        <v>6.6085153714129898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.4349722936281091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0.44157413474997192</v>
+        <v>-0.21742670021082824</v>
       </c>
       <c r="C15" s="1">
-        <v>11.134212967658687</v>
+        <v>16.447518791099014</v>
       </c>
       <c r="D15" s="2">
-        <v>5.9000756200756888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0840288046703206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>-0.20256930387526093</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>14.66296080126293</v>
+        <v>19.119148472374558</v>
       </c>
       <c r="D16" s="2">
-        <v>6.028882014450871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.9097789986870009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0.33201612578146827</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>14.102449647175918</v>
+        <v>20.077812776215065</v>
       </c>
       <c r="D17" s="2">
-        <v>6.6553760084736506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.988000105588851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.10777934073745751</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>14.768579611228763</v>
+        <v>18.818541530627062</v>
       </c>
       <c r="D18" s="2">
-        <v>6.5178404444864624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.6316234127498412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>9.8829361826571857E-2</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>12.483894391494573</v>
+        <v>15.318653720516066</v>
       </c>
       <c r="D19" s="2">
-        <v>5.8475964150903943</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0485619507993835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1">
-        <v>16.982686727598256</v>
+        <v>21.393562149134208</v>
       </c>
       <c r="D20" s="2">
-        <v>5.7077180629451529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5786953810482069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0.57912579558346189</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>16.336849615218679</v>
+        <v>26.960358470079587</v>
       </c>
       <c r="D21" s="2">
-        <v>7.6459021934960036</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.492384766593096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>-1.395195965772001E-2</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>16.33501649637941</v>
+        <v>25.565485023040967</v>
       </c>
       <c r="D22" s="2">
-        <v>6.7572771193349306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.0004147086767654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>-0.49928648533207837</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>11.248501332244668</v>
+        <v>15.949604257364296</v>
       </c>
       <c r="D23" s="2">
-        <v>4.633880768127721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1272022196044431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1.3855952243380283</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>10.472765204136461</v>
+        <v>18.253155700519923</v>
       </c>
       <c r="D24" s="2">
-        <v>6.917492312454347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1673050443279789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>0.83488658625263079</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>9.3552122891575475</v>
+        <v>14.654356459215705</v>
       </c>
       <c r="D25" s="2">
-        <v>5.8077409308290679</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.4303867102640302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1.2967922317963632</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>9.4735267483015875</v>
+        <v>15.623746453072336</v>
       </c>
       <c r="D26" s="2">
-        <v>6.4389775261558473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.6381834885750308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1.5821075493195458</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>9.0688979935656331</v>
+        <v>17.52389107381547</v>
       </c>
       <c r="D27" s="2">
-        <v>6.6429439385069404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1452159966253057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0.63271009236547882</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>9.8820343999736568</v>
+        <v>14.745654537640796</v>
       </c>
       <c r="D28" s="2">
-        <v>5.7332091757769561</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.2267298947284155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>2.0584596103791974</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>9.5559656104303343</v>
+        <v>18.078680481544019</v>
       </c>
       <c r="D29" s="2">
-        <v>7.4231184460305331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.3618274496018246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>10.963267917901408</v>
+        <v>13.784164168884658</v>
       </c>
       <c r="D30" s="2">
-        <v>4.3961918231619332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5063847197701803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>0.4522849898214909</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>6.8987056743044279</v>
+        <v>12.092979358175844</v>
       </c>
       <c r="D31" s="2">
-        <v>4.3953377697266456</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.9255697801064251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1.445663532632488</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>6.5381143569198521</v>
+        <v>11.592548404683278</v>
       </c>
       <c r="D32" s="2">
-        <v>5.4367191377669553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9171021666774049</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>11.793718492160668</v>
+        <v>11.96375878922092</v>
       </c>
       <c r="D33" s="2">
-        <v>2.5657758366865702</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0570911309032258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>0.86294724457845207</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>6.9385882612929262</v>
+        <v>13.625383448359258</v>
       </c>
       <c r="D34" s="2">
-        <v>4.9113944054312348</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.2028193098961912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1.1963143990316787</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>6.6165619354940901</v>
+        <v>10.694036871628564</v>
       </c>
       <c r="D35" s="2">
-        <v>5.1756287542386907</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.6866325828673401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>0.20880553353623962</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>7.3696998003694461</v>
+        <v>11.87314867237597</v>
       </c>
       <c r="D36" s="2">
-        <v>4.2779809073193302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5681714829770992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>-0.26437991561459229</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>8.4053224195651595</v>
+        <v>9.7039355005504735</v>
       </c>
       <c r="D37" s="2">
-        <v>4.0480211123757197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5312088058877507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>-1.3875249069111448E-2</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>6.0400508865772622</v>
+        <v>9.4562803626284069</v>
       </c>
       <c r="D38" s="2">
-        <v>3.4799656907807233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0041423226775821</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>9.4806921583023449</v>
+        <v>8.6602910658737571</v>
       </c>
       <c r="D39" s="2">
-        <v>3.6931993613241425</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2601033535846389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>13.351390081204141</v>
+        <v>11.144007430626896</v>
       </c>
       <c r="D40" s="2">
-        <v>3.0606166424555856</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2304344274030961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>-0.33876281473798436</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>7.176451786503061</v>
+        <v>8.5950838519551951</v>
       </c>
       <c r="D41" s="2">
-        <v>3.5148765636259904</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9480962965581439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>0.41236420769961629</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>8.8673232420075934</v>
+        <v>10.900352975779905</v>
       </c>
       <c r="D42" s="2">
-        <v>5.0894197968283184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2503118956477199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>2.1172833222177099</v>
+        <v>-2.6706947283892342E-2</v>
       </c>
       <c r="C43" s="1">
-        <v>6.0553875439686369</v>
+        <v>9.006432033648899</v>
       </c>
       <c r="D43" s="2">
-        <v>5.9980214606657114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.3257150698567455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>8.2757977795478244</v>
+        <v>9.6797474316590435</v>
       </c>
       <c r="D44" s="2">
-        <v>3.6625357607037867</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.0687695495779219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>-0.10458998148955839</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>4.373142020681744</v>
+        <v>5.4351627597502885</v>
       </c>
       <c r="D45" s="2">
-        <v>2.6524470193933527</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3153039631359311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1.6328744999179168</v>
+        <v>0.21213183017894829</v>
       </c>
       <c r="C46" s="1">
-        <v>5.0037498368116218</v>
+        <v>8.1878610483223593</v>
       </c>
       <c r="D46" s="2">
-        <v>4.9392888438651994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2744246673583715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>1.5181869095300575</v>
+        <v>-0.37375089586051974</v>
       </c>
       <c r="C47" s="1">
-        <v>5.3081149753247061</v>
+        <v>8.7791978694913322</v>
       </c>
       <c r="D47" s="2">
-        <v>4.9570131568985545</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.9613344260659766</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>0.28519071804566432</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>5.8799031171412937</v>
+        <v>6.677228746150691</v>
       </c>
       <c r="D48" s="2">
-        <v>3.7745449627135885</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1736910527096414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>0.5885962606360351</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>5.837168314847399</v>
+        <v>9.1264167990979175</v>
       </c>
       <c r="D49" s="2">
-        <v>4.1177954398124497</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1416703509535677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>0.40355300129258642</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>9.1519201956794642</v>
+        <v>12.785345697833355</v>
       </c>
       <c r="D50" s="2">
-        <v>5.1792343256203104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.7511634966860292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>0.12071856581125283</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1">
-        <v>6.9368815796880607</v>
+        <v>7.8425573023137867</v>
       </c>
       <c r="D51" s="2">
-        <v>4.0016800299986564</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5747251675233673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1">
-        <v>8.525628683290396</v>
+        <v>7.736047643889167</v>
       </c>
       <c r="D52" s="2">
-        <v>1.1470045676277376</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.41668351717427593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1">
-        <v>10.008406165982484</v>
+        <v>9.5361699419479891</v>
       </c>
       <c r="D53" s="2">
-        <v>1.5185632240958846</v>
+        <v>0.60451516928567139</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1182,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1194,7 +1194,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
